--- a/planificacion.xlsx
+++ b/planificacion.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Ingenieria software\G2-ESTAFA\G2-ESTAFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0364500D-D0DE-41F4-84A4-223964051275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificación Gantt" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="69">
   <si>
     <t>Actividades del proyecto</t>
   </si>
@@ -82,19 +83,10 @@
     <t>Primer acercamiento a la estructura del software</t>
   </si>
   <si>
-    <t>tarde</t>
-  </si>
-  <si>
     <t>Debatir diseño propuesto y modificarlo</t>
   </si>
   <si>
-    <t>en proceso</t>
-  </si>
-  <si>
     <t>Implementación del software</t>
-  </si>
-  <si>
-    <t>por hacer</t>
   </si>
   <si>
     <t>PRUEBAS DEL SOFTWARE</t>
@@ -305,12 +297,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -398,8 +390,21 @@
       <color rgb="FF777777"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,21 +414,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93B524"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE59E17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC5447"/>
       </patternFill>
     </fill>
     <fill>
@@ -484,6 +474,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC384C5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -648,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -678,21 +674,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -733,16 +719,35 @@
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,7 +782,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -820,7 +831,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1108,43 +1125,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:CX20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X13" sqref="X13"/>
+      <pane xSplit="4" topLeftCell="BH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="82.28515625" customWidth="1"/>
+    <col min="2" max="2" width="82.33203125" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="102" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:102" ht="63.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:102" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:102" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:102" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="35">
+    <row r="2" spans="1:102" ht="63.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:102" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:102" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:102" ht="21" x14ac:dyDescent="0.3">
+      <c r="B5" s="31">
         <v>43976.794596342595</v>
       </c>
     </row>
-    <row r="6" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1258,7 +1275,7 @@
       <c r="CW6" s="3"/>
       <c r="CX6" s="3"/>
     </row>
-    <row r="7" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E7" s="4">
         <v>43899</v>
       </c>
@@ -1554,7 +1571,7 @@
         <v>43996</v>
       </c>
     </row>
-    <row r="8" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:102" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -1563,7 +1580,7 @@
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1794,7 +1811,7 @@
       <c r="CC8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CD8" s="16" t="s">
+      <c r="CD8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="CE8" s="5" t="s">
@@ -1858,945 +1875,937 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:102" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:102" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="45" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="W9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AM9" s="18"/>
-      <c r="AR9" s="18"/>
-      <c r="AT9" s="18"/>
-      <c r="AY9" s="18"/>
-      <c r="BA9" s="18"/>
-      <c r="BF9" s="18"/>
-      <c r="BH9" s="18"/>
-      <c r="BM9" s="18"/>
-      <c r="BO9" s="18"/>
-      <c r="BT9" s="18"/>
-      <c r="BV9" s="18"/>
-      <c r="CA9" s="18"/>
-      <c r="CC9" s="18"/>
-      <c r="CD9" s="16"/>
-      <c r="CH9" s="18"/>
-      <c r="CJ9" s="18"/>
-      <c r="CO9" s="18"/>
-      <c r="CQ9" s="18"/>
-      <c r="CV9" s="18"/>
-      <c r="CX9" s="18"/>
-    </row>
-    <row r="10" spans="1:102" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="W9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="BA9" s="14"/>
+      <c r="BF9" s="14"/>
+      <c r="BH9" s="14"/>
+      <c r="BM9" s="14"/>
+      <c r="BO9" s="14"/>
+      <c r="BT9" s="14"/>
+      <c r="BV9" s="14"/>
+      <c r="CA9" s="14"/>
+      <c r="CC9" s="14"/>
+      <c r="CD9" s="12"/>
+      <c r="CH9" s="14"/>
+      <c r="CJ9" s="14"/>
+      <c r="CO9" s="14"/>
+      <c r="CQ9" s="14"/>
+      <c r="CV9" s="14"/>
+      <c r="CX9" s="14"/>
+    </row>
+    <row r="10" spans="1:102" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="45" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="20"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="16"/>
       <c r="T10" s="37"/>
       <c r="U10" s="37"/>
       <c r="V10" s="37"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="15"/>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="15"/>
-      <c r="AQ10" s="15"/>
-      <c r="AR10" s="19"/>
-      <c r="AS10" s="15"/>
-      <c r="AT10" s="19"/>
-      <c r="AU10" s="15"/>
-      <c r="AV10" s="15"/>
-      <c r="AW10" s="15"/>
-      <c r="AX10" s="15"/>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="15"/>
-      <c r="BA10" s="19"/>
-      <c r="BB10" s="15"/>
-      <c r="BC10" s="15"/>
-      <c r="BD10" s="15"/>
-      <c r="BE10" s="15"/>
-      <c r="BF10" s="19"/>
-      <c r="BG10" s="15"/>
-      <c r="BH10" s="19"/>
-      <c r="BI10" s="15"/>
-      <c r="BJ10" s="15"/>
-      <c r="BK10" s="15"/>
-      <c r="BL10" s="15"/>
-      <c r="BM10" s="19"/>
-      <c r="BN10" s="15"/>
-      <c r="BO10" s="19"/>
-      <c r="BP10" s="15"/>
-      <c r="BQ10" s="15"/>
-      <c r="BR10" s="15"/>
-      <c r="BS10" s="15"/>
-      <c r="BT10" s="19"/>
-      <c r="BU10" s="15"/>
-      <c r="BV10" s="19"/>
-      <c r="BW10" s="15"/>
-      <c r="BX10" s="15"/>
-      <c r="BY10" s="15"/>
-      <c r="BZ10" s="15"/>
-      <c r="CA10" s="19"/>
-      <c r="CB10" s="15"/>
-      <c r="CC10" s="19"/>
-      <c r="CD10" s="16"/>
-      <c r="CE10" s="15"/>
-      <c r="CF10" s="15"/>
-      <c r="CG10" s="15"/>
-      <c r="CH10" s="19"/>
-      <c r="CI10" s="15"/>
-      <c r="CJ10" s="19"/>
-      <c r="CK10" s="15"/>
-      <c r="CL10" s="15"/>
-      <c r="CM10" s="15"/>
-      <c r="CN10" s="15"/>
-      <c r="CO10" s="19"/>
-      <c r="CP10" s="15"/>
-      <c r="CQ10" s="19"/>
-      <c r="CR10" s="15"/>
-      <c r="CS10" s="15"/>
-      <c r="CT10" s="15"/>
-      <c r="CU10" s="15"/>
-      <c r="CV10" s="19"/>
-      <c r="CW10" s="15"/>
-      <c r="CX10" s="19"/>
-    </row>
-    <row r="11" spans="1:102" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W10" s="15"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="11"/>
+      <c r="BE10" s="11"/>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="11"/>
+      <c r="BH10" s="15"/>
+      <c r="BI10" s="11"/>
+      <c r="BJ10" s="11"/>
+      <c r="BK10" s="11"/>
+      <c r="BL10" s="11"/>
+      <c r="BM10" s="15"/>
+      <c r="BN10" s="11"/>
+      <c r="BO10" s="15"/>
+      <c r="BP10" s="11"/>
+      <c r="BQ10" s="11"/>
+      <c r="BR10" s="11"/>
+      <c r="BS10" s="11"/>
+      <c r="BT10" s="15"/>
+      <c r="BU10" s="11"/>
+      <c r="BV10" s="15"/>
+      <c r="BW10" s="11"/>
+      <c r="BX10" s="11"/>
+      <c r="BY10" s="11"/>
+      <c r="BZ10" s="11"/>
+      <c r="CA10" s="15"/>
+      <c r="CB10" s="11"/>
+      <c r="CC10" s="15"/>
+      <c r="CD10" s="12"/>
+      <c r="CE10" s="11"/>
+      <c r="CF10" s="11"/>
+      <c r="CG10" s="11"/>
+      <c r="CH10" s="15"/>
+      <c r="CI10" s="11"/>
+      <c r="CJ10" s="15"/>
+      <c r="CK10" s="11"/>
+      <c r="CL10" s="11"/>
+      <c r="CM10" s="11"/>
+      <c r="CN10" s="11"/>
+      <c r="CO10" s="15"/>
+      <c r="CP10" s="11"/>
+      <c r="CQ10" s="15"/>
+      <c r="CR10" s="11"/>
+      <c r="CS10" s="11"/>
+      <c r="CT10" s="11"/>
+      <c r="CU10" s="11"/>
+      <c r="CV10" s="15"/>
+      <c r="CW10" s="11"/>
+      <c r="CX10" s="15"/>
+    </row>
+    <row r="11" spans="1:102" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="45" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AD11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AM11" s="18"/>
-      <c r="AR11" s="18"/>
-      <c r="AT11" s="18"/>
-      <c r="AY11" s="18"/>
-      <c r="BA11" s="18"/>
-      <c r="BF11" s="18"/>
-      <c r="BH11" s="18"/>
-      <c r="BM11" s="18"/>
-      <c r="BO11" s="18"/>
-      <c r="BT11" s="18"/>
-      <c r="BV11" s="18"/>
-      <c r="CA11" s="18"/>
-      <c r="CC11" s="18"/>
-      <c r="CD11" s="16"/>
-      <c r="CH11" s="18"/>
-      <c r="CJ11" s="18"/>
-      <c r="CO11" s="18"/>
-      <c r="CQ11" s="18"/>
-      <c r="CV11" s="18"/>
-      <c r="CX11" s="18"/>
-    </row>
-    <row r="12" spans="1:102" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AD11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="BA11" s="14"/>
+      <c r="BF11" s="14"/>
+      <c r="BH11" s="14"/>
+      <c r="BM11" s="14"/>
+      <c r="BO11" s="14"/>
+      <c r="BT11" s="14"/>
+      <c r="BV11" s="14"/>
+      <c r="CA11" s="14"/>
+      <c r="CC11" s="14"/>
+      <c r="CD11" s="12"/>
+      <c r="CH11" s="14"/>
+      <c r="CJ11" s="14"/>
+      <c r="CO11" s="14"/>
+      <c r="CQ11" s="14"/>
+      <c r="CV11" s="14"/>
+      <c r="CX11" s="14"/>
+    </row>
+    <row r="12" spans="1:102" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="45" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="39"/>
-      <c r="AN12" s="39"/>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="15"/>
-      <c r="AQ12" s="15"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="15"/>
-      <c r="AT12" s="19"/>
-      <c r="AU12" s="15"/>
-      <c r="AV12" s="15"/>
-      <c r="AW12" s="15"/>
-      <c r="AX12" s="15"/>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="15"/>
-      <c r="BA12" s="19"/>
-      <c r="BB12" s="15"/>
-      <c r="BC12" s="15"/>
-      <c r="BD12" s="15"/>
-      <c r="BE12" s="15"/>
-      <c r="BF12" s="19"/>
-      <c r="BG12" s="15"/>
-      <c r="BH12" s="19"/>
-      <c r="BI12" s="15"/>
-      <c r="BJ12" s="15"/>
-      <c r="BK12" s="15"/>
-      <c r="BL12" s="15"/>
-      <c r="BM12" s="19"/>
-      <c r="BN12" s="15"/>
-      <c r="BO12" s="19"/>
-      <c r="BP12" s="15"/>
-      <c r="BQ12" s="15"/>
-      <c r="BR12" s="15"/>
-      <c r="BS12" s="15"/>
-      <c r="BT12" s="19"/>
-      <c r="BU12" s="15"/>
-      <c r="BV12" s="19"/>
-      <c r="BW12" s="15"/>
-      <c r="BX12" s="15"/>
-      <c r="BY12" s="15"/>
-      <c r="BZ12" s="15"/>
-      <c r="CA12" s="19"/>
-      <c r="CB12" s="15"/>
-      <c r="CC12" s="19"/>
-      <c r="CD12" s="16"/>
-      <c r="CE12" s="15"/>
-      <c r="CF12" s="15"/>
-      <c r="CG12" s="15"/>
-      <c r="CH12" s="19"/>
-      <c r="CI12" s="15"/>
-      <c r="CJ12" s="19"/>
-      <c r="CK12" s="15"/>
-      <c r="CL12" s="15"/>
-      <c r="CM12" s="15"/>
-      <c r="CN12" s="15"/>
-      <c r="CO12" s="19"/>
-      <c r="CP12" s="15"/>
-      <c r="CQ12" s="19"/>
-      <c r="CR12" s="15"/>
-      <c r="CS12" s="15"/>
-      <c r="CT12" s="15"/>
-      <c r="CU12" s="15"/>
-      <c r="CV12" s="19"/>
-      <c r="CW12" s="15"/>
-      <c r="CX12" s="19"/>
-    </row>
-    <row r="13" spans="1:102" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E12" s="13"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="15"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="15"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="11"/>
+      <c r="BD12" s="11"/>
+      <c r="BE12" s="11"/>
+      <c r="BF12" s="15"/>
+      <c r="BG12" s="11"/>
+      <c r="BH12" s="15"/>
+      <c r="BI12" s="11"/>
+      <c r="BJ12" s="11"/>
+      <c r="BK12" s="11"/>
+      <c r="BL12" s="11"/>
+      <c r="BM12" s="15"/>
+      <c r="BN12" s="11"/>
+      <c r="BO12" s="15"/>
+      <c r="BP12" s="11"/>
+      <c r="BQ12" s="11"/>
+      <c r="BR12" s="11"/>
+      <c r="BS12" s="11"/>
+      <c r="BT12" s="15"/>
+      <c r="BU12" s="11"/>
+      <c r="BV12" s="15"/>
+      <c r="BW12" s="11"/>
+      <c r="BX12" s="11"/>
+      <c r="BY12" s="11"/>
+      <c r="BZ12" s="11"/>
+      <c r="CA12" s="15"/>
+      <c r="CB12" s="11"/>
+      <c r="CC12" s="15"/>
+      <c r="CD12" s="12"/>
+      <c r="CE12" s="11"/>
+      <c r="CF12" s="11"/>
+      <c r="CG12" s="11"/>
+      <c r="CH12" s="15"/>
+      <c r="CI12" s="11"/>
+      <c r="CJ12" s="15"/>
+      <c r="CK12" s="11"/>
+      <c r="CL12" s="11"/>
+      <c r="CM12" s="11"/>
+      <c r="CN12" s="11"/>
+      <c r="CO12" s="15"/>
+      <c r="CP12" s="11"/>
+      <c r="CQ12" s="15"/>
+      <c r="CR12" s="11"/>
+      <c r="CS12" s="11"/>
+      <c r="CT12" s="11"/>
+      <c r="CU12" s="11"/>
+      <c r="CV12" s="15"/>
+      <c r="CW12" s="11"/>
+      <c r="CX12" s="15"/>
+    </row>
+    <row r="13" spans="1:102" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="45" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AF13" s="18"/>
-      <c r="AK13" s="18"/>
-      <c r="AM13" s="18"/>
-      <c r="AO13" s="40"/>
-      <c r="AP13" s="40"/>
-      <c r="AQ13" s="40"/>
-      <c r="AR13" s="40"/>
-      <c r="AS13" s="40"/>
-      <c r="AT13" s="40"/>
-      <c r="AU13" s="40"/>
-      <c r="AV13" s="40"/>
-      <c r="AW13" s="40"/>
-      <c r="AY13" s="18"/>
-      <c r="BA13" s="18"/>
-      <c r="BF13" s="18"/>
-      <c r="BH13" s="18"/>
-      <c r="BM13" s="18"/>
-      <c r="BO13" s="18"/>
-      <c r="BT13" s="18"/>
-      <c r="BV13" s="18"/>
-      <c r="CA13" s="18"/>
-      <c r="CC13" s="18"/>
-      <c r="CD13" s="16"/>
-      <c r="CH13" s="18"/>
-      <c r="CJ13" s="18"/>
-      <c r="CO13" s="18"/>
-      <c r="CQ13" s="18"/>
-      <c r="CV13" s="18"/>
-      <c r="CX13" s="18"/>
-    </row>
-    <row r="14" spans="1:102" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AO13" s="41"/>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="41"/>
+      <c r="AR13" s="41"/>
+      <c r="AS13" s="41"/>
+      <c r="AT13" s="41"/>
+      <c r="AU13" s="41"/>
+      <c r="AV13" s="41"/>
+      <c r="AW13" s="41"/>
+      <c r="AY13" s="14"/>
+      <c r="BA13" s="14"/>
+      <c r="BF13" s="14"/>
+      <c r="BH13" s="14"/>
+      <c r="BM13" s="14"/>
+      <c r="BO13" s="14"/>
+      <c r="BT13" s="14"/>
+      <c r="BV13" s="14"/>
+      <c r="CA13" s="14"/>
+      <c r="CC13" s="14"/>
+      <c r="CD13" s="12"/>
+      <c r="CH13" s="14"/>
+      <c r="CJ13" s="14"/>
+      <c r="CO13" s="14"/>
+      <c r="CQ13" s="14"/>
+      <c r="CV13" s="14"/>
+      <c r="CX13" s="14"/>
+    </row>
+    <row r="14" spans="1:102" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="19"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="15"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="15"/>
-      <c r="AR14" s="19"/>
-      <c r="AS14" s="15"/>
-      <c r="AT14" s="19"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="15"/>
-      <c r="AW14" s="15"/>
-      <c r="AX14" s="15"/>
-      <c r="AY14" s="19"/>
-      <c r="AZ14" s="22"/>
-      <c r="BA14" s="41"/>
-      <c r="BB14" s="41"/>
-      <c r="BC14" s="41"/>
-      <c r="BD14" s="41"/>
-      <c r="BE14" s="41"/>
-      <c r="BF14" s="41"/>
-      <c r="BG14" s="41"/>
-      <c r="BH14" s="41"/>
-      <c r="BI14" s="15"/>
-      <c r="BJ14" s="15"/>
-      <c r="BK14" s="15"/>
-      <c r="BL14" s="15"/>
-      <c r="BM14" s="19"/>
-      <c r="BN14" s="15"/>
-      <c r="BO14" s="19"/>
-      <c r="BP14" s="15"/>
-      <c r="BQ14" s="15"/>
-      <c r="BR14" s="15"/>
-      <c r="BS14" s="15"/>
-      <c r="BT14" s="19"/>
-      <c r="BU14" s="15"/>
-      <c r="BV14" s="19"/>
-      <c r="BW14" s="15"/>
-      <c r="BX14" s="15"/>
-      <c r="BY14" s="15"/>
-      <c r="BZ14" s="15"/>
-      <c r="CA14" s="19"/>
-      <c r="CB14" s="15"/>
-      <c r="CC14" s="19"/>
-      <c r="CD14" s="16"/>
-      <c r="CE14" s="15"/>
-      <c r="CF14" s="15"/>
-      <c r="CG14" s="15"/>
-      <c r="CH14" s="19"/>
-      <c r="CI14" s="15"/>
-      <c r="CJ14" s="19"/>
-      <c r="CK14" s="15"/>
-      <c r="CL14" s="15"/>
-      <c r="CM14" s="15"/>
-      <c r="CN14" s="15"/>
-      <c r="CO14" s="19"/>
-      <c r="CP14" s="15"/>
-      <c r="CQ14" s="19"/>
-      <c r="CR14" s="15"/>
-      <c r="CS14" s="15"/>
-      <c r="CT14" s="15"/>
-      <c r="CU14" s="15"/>
-      <c r="CV14" s="19"/>
-      <c r="CW14" s="15"/>
-      <c r="CX14" s="19"/>
-    </row>
-    <row r="15" spans="1:102" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="13"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="11"/>
+      <c r="AT14" s="15"/>
+      <c r="AU14" s="11"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="11"/>
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="15"/>
+      <c r="AZ14" s="18"/>
+      <c r="BA14" s="34"/>
+      <c r="BB14" s="34"/>
+      <c r="BC14" s="34"/>
+      <c r="BD14" s="34"/>
+      <c r="BE14" s="34"/>
+      <c r="BF14" s="34"/>
+      <c r="BG14" s="34"/>
+      <c r="BH14" s="34"/>
+      <c r="BI14" s="11"/>
+      <c r="BJ14" s="11"/>
+      <c r="BK14" s="11"/>
+      <c r="BL14" s="11"/>
+      <c r="BM14" s="15"/>
+      <c r="BN14" s="11"/>
+      <c r="BO14" s="15"/>
+      <c r="BP14" s="11"/>
+      <c r="BQ14" s="11"/>
+      <c r="BR14" s="11"/>
+      <c r="BS14" s="11"/>
+      <c r="BT14" s="15"/>
+      <c r="BU14" s="11"/>
+      <c r="BV14" s="15"/>
+      <c r="BW14" s="11"/>
+      <c r="BX14" s="11"/>
+      <c r="BY14" s="11"/>
+      <c r="BZ14" s="11"/>
+      <c r="CA14" s="15"/>
+      <c r="CB14" s="11"/>
+      <c r="CC14" s="15"/>
+      <c r="CD14" s="12"/>
+      <c r="CE14" s="11"/>
+      <c r="CF14" s="11"/>
+      <c r="CG14" s="11"/>
+      <c r="CH14" s="15"/>
+      <c r="CI14" s="11"/>
+      <c r="CJ14" s="15"/>
+      <c r="CK14" s="11"/>
+      <c r="CL14" s="11"/>
+      <c r="CM14" s="11"/>
+      <c r="CN14" s="11"/>
+      <c r="CO14" s="15"/>
+      <c r="CP14" s="11"/>
+      <c r="CQ14" s="15"/>
+      <c r="CR14" s="11"/>
+      <c r="CS14" s="11"/>
+      <c r="CT14" s="11"/>
+      <c r="CU14" s="11"/>
+      <c r="CV14" s="15"/>
+      <c r="CW14" s="11"/>
+      <c r="CX14" s="15"/>
+    </row>
+    <row r="15" spans="1:102" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BF15" s="14"/>
+      <c r="BH15" s="14"/>
+      <c r="BM15" s="14"/>
+      <c r="BO15" s="35"/>
+      <c r="BP15" s="35"/>
+      <c r="BQ15" s="35"/>
+      <c r="BR15" s="35"/>
+      <c r="BS15" s="35"/>
+      <c r="BT15" s="35"/>
+      <c r="BU15" s="35"/>
+      <c r="BV15" s="14"/>
+      <c r="CA15" s="14"/>
+      <c r="CC15" s="14"/>
+      <c r="CD15" s="12"/>
+      <c r="CH15" s="14"/>
+      <c r="CJ15" s="14"/>
+      <c r="CO15" s="14"/>
+      <c r="CQ15" s="14"/>
+      <c r="CV15" s="14"/>
+      <c r="CX15" s="14"/>
+    </row>
+    <row r="16" spans="1:102" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="I15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AF15" s="18"/>
-      <c r="AK15" s="18"/>
-      <c r="AM15" s="18"/>
-      <c r="AR15" s="18"/>
-      <c r="AT15" s="18"/>
-      <c r="AY15" s="18"/>
-      <c r="BA15" s="18"/>
-      <c r="BF15" s="18"/>
-      <c r="BH15" s="18"/>
-      <c r="BM15" s="18"/>
-      <c r="BO15" s="42"/>
-      <c r="BP15" s="42"/>
-      <c r="BQ15" s="42"/>
-      <c r="BR15" s="42"/>
-      <c r="BS15" s="42"/>
-      <c r="BT15" s="42"/>
-      <c r="BU15" s="42"/>
-      <c r="BV15" s="18"/>
-      <c r="CA15" s="18"/>
-      <c r="CC15" s="18"/>
-      <c r="CD15" s="16"/>
-      <c r="CH15" s="18"/>
-      <c r="CJ15" s="18"/>
-      <c r="CO15" s="18"/>
-      <c r="CQ15" s="18"/>
-      <c r="CV15" s="18"/>
-      <c r="CX15" s="18"/>
-    </row>
-    <row r="16" spans="1:102" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="D16" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="15"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="15"/>
+      <c r="BB16" s="11"/>
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="11"/>
+      <c r="BE16" s="11"/>
+      <c r="BF16" s="15"/>
+      <c r="BG16" s="11"/>
+      <c r="BH16" s="15"/>
+      <c r="BI16" s="11"/>
+      <c r="BJ16" s="11"/>
+      <c r="BK16" s="11"/>
+      <c r="BL16" s="11"/>
+      <c r="BM16" s="15"/>
+      <c r="BN16" s="11"/>
+      <c r="BO16" s="15"/>
+      <c r="BP16" s="11"/>
+      <c r="BQ16" s="11"/>
+      <c r="BR16" s="11"/>
+      <c r="BS16" s="11"/>
+      <c r="BT16" s="15"/>
+      <c r="BU16" s="19"/>
+      <c r="BV16" s="33"/>
+      <c r="BW16" s="33"/>
+      <c r="BX16" s="33"/>
+      <c r="BY16" s="33"/>
+      <c r="BZ16" s="33"/>
+      <c r="CA16" s="33"/>
+      <c r="CB16" s="33"/>
+      <c r="CC16" s="33"/>
+      <c r="CD16" s="33"/>
+      <c r="CE16" s="33"/>
+      <c r="CF16" s="33"/>
+      <c r="CG16" s="33"/>
+      <c r="CH16" s="33"/>
+      <c r="CI16" s="33"/>
+      <c r="CJ16" s="33"/>
+      <c r="CK16" s="33"/>
+      <c r="CL16" s="33"/>
+      <c r="CM16" s="33"/>
+      <c r="CN16" s="33"/>
+      <c r="CO16" s="33"/>
+      <c r="CP16" s="11"/>
+      <c r="CQ16" s="15"/>
+      <c r="CR16" s="11"/>
+      <c r="CS16" s="11"/>
+      <c r="CT16" s="11"/>
+      <c r="CU16" s="11"/>
+      <c r="CV16" s="15"/>
+      <c r="CW16" s="11"/>
+      <c r="CX16" s="15"/>
+    </row>
+    <row r="17" spans="2:102" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AY17" s="14"/>
+      <c r="BA17" s="14"/>
+      <c r="BF17" s="14"/>
+      <c r="BH17" s="14"/>
+      <c r="BM17" s="14"/>
+      <c r="BO17" s="14"/>
+      <c r="BT17" s="14"/>
+      <c r="BV17" s="14"/>
+      <c r="CA17" s="14"/>
+      <c r="CC17" s="14"/>
+      <c r="CD17" s="12"/>
+      <c r="CH17" s="14"/>
+      <c r="CJ17" s="14"/>
+      <c r="CO17" s="36"/>
+      <c r="CP17" s="36"/>
+      <c r="CQ17" s="14"/>
+      <c r="CV17" s="14"/>
+      <c r="CX17" s="14"/>
+    </row>
+    <row r="18" spans="2:102" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C18" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="15"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="15"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="15"/>
-      <c r="AO16" s="15"/>
-      <c r="AP16" s="15"/>
-      <c r="AQ16" s="15"/>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="15"/>
-      <c r="AT16" s="19"/>
-      <c r="AU16" s="15"/>
-      <c r="AV16" s="15"/>
-      <c r="AW16" s="15"/>
-      <c r="AX16" s="15"/>
-      <c r="AY16" s="19"/>
-      <c r="AZ16" s="15"/>
-      <c r="BA16" s="19"/>
-      <c r="BB16" s="15"/>
-      <c r="BC16" s="15"/>
-      <c r="BD16" s="15"/>
-      <c r="BE16" s="15"/>
-      <c r="BF16" s="19"/>
-      <c r="BG16" s="15"/>
-      <c r="BH16" s="19"/>
-      <c r="BI16" s="15"/>
-      <c r="BJ16" s="15"/>
-      <c r="BK16" s="15"/>
-      <c r="BL16" s="15"/>
-      <c r="BM16" s="19"/>
-      <c r="BN16" s="15"/>
-      <c r="BO16" s="19"/>
-      <c r="BP16" s="15"/>
-      <c r="BQ16" s="15"/>
-      <c r="BR16" s="15"/>
-      <c r="BS16" s="15"/>
-      <c r="BT16" s="19"/>
-      <c r="BU16" s="23"/>
-      <c r="BV16" s="43"/>
-      <c r="BW16" s="43"/>
-      <c r="BX16" s="43"/>
-      <c r="BY16" s="43"/>
-      <c r="BZ16" s="43"/>
-      <c r="CA16" s="43"/>
-      <c r="CB16" s="43"/>
-      <c r="CC16" s="43"/>
-      <c r="CD16" s="43"/>
-      <c r="CE16" s="43"/>
-      <c r="CF16" s="15"/>
-      <c r="CG16" s="15"/>
-      <c r="CH16" s="19"/>
-      <c r="CI16" s="15"/>
-      <c r="CJ16" s="19"/>
-      <c r="CK16" s="15"/>
-      <c r="CL16" s="15"/>
-      <c r="CM16" s="15"/>
-      <c r="CN16" s="15"/>
-      <c r="CO16" s="19"/>
-      <c r="CP16" s="15"/>
-      <c r="CQ16" s="19"/>
-      <c r="CR16" s="15"/>
-      <c r="CS16" s="15"/>
-      <c r="CT16" s="15"/>
-      <c r="CU16" s="15"/>
-      <c r="CV16" s="19"/>
-      <c r="CW16" s="15"/>
-      <c r="CX16" s="19"/>
-    </row>
-    <row r="17" spans="2:102" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="D18" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="15"/>
+      <c r="AS18" s="11"/>
+      <c r="AT18" s="15"/>
+      <c r="AU18" s="11"/>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="11"/>
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="15"/>
+      <c r="AZ18" s="11"/>
+      <c r="BA18" s="15"/>
+      <c r="BB18" s="11"/>
+      <c r="BC18" s="11"/>
+      <c r="BD18" s="11"/>
+      <c r="BE18" s="11"/>
+      <c r="BF18" s="15"/>
+      <c r="BG18" s="11"/>
+      <c r="BH18" s="15"/>
+      <c r="BI18" s="11"/>
+      <c r="BJ18" s="11"/>
+      <c r="BK18" s="11"/>
+      <c r="BL18" s="11"/>
+      <c r="BM18" s="15"/>
+      <c r="BN18" s="11"/>
+      <c r="BO18" s="15"/>
+      <c r="BP18" s="11"/>
+      <c r="BQ18" s="11"/>
+      <c r="BR18" s="11"/>
+      <c r="BS18" s="11"/>
+      <c r="BT18" s="15"/>
+      <c r="BU18" s="11"/>
+      <c r="BV18" s="15"/>
+      <c r="BW18" s="11"/>
+      <c r="BX18" s="11"/>
+      <c r="BY18" s="11"/>
+      <c r="BZ18" s="11"/>
+      <c r="CA18" s="15"/>
+      <c r="CB18" s="11"/>
+      <c r="CC18" s="15"/>
+      <c r="CD18" s="12"/>
+      <c r="CE18" s="20"/>
+      <c r="CH18" s="15"/>
+      <c r="CI18" s="11"/>
+      <c r="CJ18" s="15"/>
+      <c r="CK18" s="11"/>
+      <c r="CL18" s="11"/>
+      <c r="CM18" s="11"/>
+      <c r="CP18" s="37"/>
+      <c r="CQ18" s="37"/>
+      <c r="CR18" s="11"/>
+      <c r="CS18" s="11"/>
+      <c r="CT18" s="11"/>
+      <c r="CU18" s="11"/>
+      <c r="CV18" s="15"/>
+      <c r="CW18" s="11"/>
+      <c r="CX18" s="15"/>
+    </row>
+    <row r="19" spans="2:102" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BF19" s="14"/>
+      <c r="BH19" s="14"/>
+      <c r="BM19" s="14"/>
+      <c r="BO19" s="14"/>
+      <c r="BT19" s="14"/>
+      <c r="BV19" s="14"/>
+      <c r="CA19" s="14"/>
+      <c r="CC19" s="14"/>
+      <c r="CD19" s="12"/>
+      <c r="CO19" s="32"/>
+      <c r="CP19" s="32"/>
+      <c r="CQ19" s="32"/>
+      <c r="CV19" s="14"/>
+      <c r="CX19" s="14"/>
+    </row>
+    <row r="20" spans="2:102" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C20" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="I17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AK17" s="18"/>
-      <c r="AM17" s="18"/>
-      <c r="AR17" s="18"/>
-      <c r="AT17" s="18"/>
-      <c r="AY17" s="18"/>
-      <c r="BA17" s="18"/>
-      <c r="BF17" s="18"/>
-      <c r="BH17" s="18"/>
-      <c r="BM17" s="18"/>
-      <c r="BO17" s="18"/>
-      <c r="BT17" s="18"/>
-      <c r="BV17" s="18"/>
-      <c r="CA17" s="18"/>
-      <c r="CC17" s="18"/>
-      <c r="CD17" s="16"/>
-      <c r="CF17" s="44"/>
-      <c r="CG17" s="44"/>
-      <c r="CH17" s="18"/>
-      <c r="CJ17" s="18"/>
-      <c r="CO17" s="18"/>
-      <c r="CQ17" s="18"/>
-      <c r="CV17" s="18"/>
-      <c r="CX17" s="18"/>
-    </row>
-    <row r="18" spans="2:102" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="15"/>
-      <c r="AO18" s="15"/>
-      <c r="AP18" s="15"/>
-      <c r="AQ18" s="15"/>
-      <c r="AR18" s="19"/>
-      <c r="AS18" s="15"/>
-      <c r="AT18" s="19"/>
-      <c r="AU18" s="15"/>
-      <c r="AV18" s="15"/>
-      <c r="AW18" s="15"/>
-      <c r="AX18" s="15"/>
-      <c r="AY18" s="19"/>
-      <c r="AZ18" s="15"/>
-      <c r="BA18" s="19"/>
-      <c r="BB18" s="15"/>
-      <c r="BC18" s="15"/>
-      <c r="BD18" s="15"/>
-      <c r="BE18" s="15"/>
-      <c r="BF18" s="19"/>
-      <c r="BG18" s="15"/>
-      <c r="BH18" s="19"/>
-      <c r="BI18" s="15"/>
-      <c r="BJ18" s="15"/>
-      <c r="BK18" s="15"/>
-      <c r="BL18" s="15"/>
-      <c r="BM18" s="19"/>
-      <c r="BN18" s="15"/>
-      <c r="BO18" s="19"/>
-      <c r="BP18" s="15"/>
-      <c r="BQ18" s="15"/>
-      <c r="BR18" s="15"/>
-      <c r="BS18" s="15"/>
-      <c r="BT18" s="19"/>
-      <c r="BU18" s="15"/>
-      <c r="BV18" s="19"/>
-      <c r="BW18" s="15"/>
-      <c r="BX18" s="15"/>
-      <c r="BY18" s="15"/>
-      <c r="BZ18" s="15"/>
-      <c r="CA18" s="19"/>
-      <c r="CB18" s="15"/>
-      <c r="CC18" s="19"/>
-      <c r="CD18" s="16"/>
-      <c r="CE18" s="24"/>
-      <c r="CF18" s="37"/>
-      <c r="CG18" s="37"/>
-      <c r="CH18" s="19"/>
-      <c r="CI18" s="15"/>
-      <c r="CJ18" s="19"/>
-      <c r="CK18" s="15"/>
-      <c r="CL18" s="15"/>
-      <c r="CM18" s="15"/>
-      <c r="CN18" s="15"/>
-      <c r="CO18" s="19"/>
-      <c r="CP18" s="15"/>
-      <c r="CQ18" s="19"/>
-      <c r="CR18" s="15"/>
-      <c r="CS18" s="15"/>
-      <c r="CT18" s="15"/>
-      <c r="CU18" s="15"/>
-      <c r="CV18" s="19"/>
-      <c r="CW18" s="15"/>
-      <c r="CX18" s="19"/>
-    </row>
-    <row r="19" spans="2:102" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="I19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AF19" s="18"/>
-      <c r="AK19" s="18"/>
-      <c r="AM19" s="18"/>
-      <c r="AR19" s="18"/>
-      <c r="AT19" s="18"/>
-      <c r="AY19" s="18"/>
-      <c r="BA19" s="18"/>
-      <c r="BF19" s="18"/>
-      <c r="BH19" s="18"/>
-      <c r="BM19" s="18"/>
-      <c r="BO19" s="18"/>
-      <c r="BT19" s="18"/>
-      <c r="BV19" s="18"/>
-      <c r="CA19" s="18"/>
-      <c r="CC19" s="18"/>
-      <c r="CD19" s="16"/>
-      <c r="CH19" s="45"/>
-      <c r="CI19" s="45"/>
-      <c r="CJ19" s="45"/>
-      <c r="CO19" s="18"/>
-      <c r="CQ19" s="18"/>
-      <c r="CV19" s="18"/>
-      <c r="CX19" s="18"/>
-    </row>
-    <row r="20" spans="2:102" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="15"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="15"/>
-      <c r="AO20" s="15"/>
-      <c r="AP20" s="15"/>
-      <c r="AQ20" s="15"/>
-      <c r="AR20" s="19"/>
-      <c r="AS20" s="15"/>
-      <c r="AT20" s="19"/>
-      <c r="AU20" s="15"/>
-      <c r="AV20" s="15"/>
-      <c r="AW20" s="15"/>
-      <c r="AX20" s="15"/>
-      <c r="AY20" s="19"/>
-      <c r="AZ20" s="15"/>
-      <c r="BA20" s="19"/>
-      <c r="BB20" s="15"/>
-      <c r="BC20" s="15"/>
-      <c r="BD20" s="15"/>
-      <c r="BE20" s="15"/>
-      <c r="BF20" s="19"/>
-      <c r="BG20" s="15"/>
-      <c r="BH20" s="19"/>
-      <c r="BI20" s="15"/>
-      <c r="BJ20" s="15"/>
-      <c r="BK20" s="15"/>
-      <c r="BL20" s="15"/>
-      <c r="BM20" s="19"/>
-      <c r="BN20" s="15"/>
-      <c r="BO20" s="19"/>
-      <c r="BP20" s="15"/>
-      <c r="BQ20" s="15"/>
-      <c r="BR20" s="15"/>
-      <c r="BS20" s="15"/>
-      <c r="BT20" s="19"/>
-      <c r="BU20" s="15"/>
-      <c r="BV20" s="19"/>
-      <c r="BW20" s="15"/>
-      <c r="BX20" s="15"/>
-      <c r="BY20" s="15"/>
-      <c r="BZ20" s="15"/>
-      <c r="CA20" s="19"/>
-      <c r="CB20" s="15"/>
-      <c r="CC20" s="19"/>
-      <c r="CD20" s="16"/>
-      <c r="CE20" s="15"/>
-      <c r="CF20" s="15"/>
-      <c r="CG20" s="15"/>
-      <c r="CH20" s="19"/>
-      <c r="CI20" s="15"/>
-      <c r="CJ20" s="25"/>
-      <c r="CK20" s="43"/>
-      <c r="CL20" s="43"/>
-      <c r="CM20" s="15"/>
-      <c r="CN20" s="15"/>
-      <c r="CO20" s="19"/>
-      <c r="CP20" s="15"/>
-      <c r="CQ20" s="19"/>
-      <c r="CR20" s="15"/>
-      <c r="CS20" s="15"/>
-      <c r="CT20" s="15"/>
-      <c r="CU20" s="15"/>
-      <c r="CV20" s="19"/>
-      <c r="CW20" s="15"/>
-      <c r="CX20" s="19"/>
+      <c r="D20" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="11"/>
+      <c r="BC20" s="11"/>
+      <c r="BD20" s="11"/>
+      <c r="BE20" s="11"/>
+      <c r="BF20" s="15"/>
+      <c r="BG20" s="11"/>
+      <c r="BH20" s="15"/>
+      <c r="BI20" s="11"/>
+      <c r="BJ20" s="11"/>
+      <c r="BK20" s="11"/>
+      <c r="BL20" s="11"/>
+      <c r="BM20" s="15"/>
+      <c r="BN20" s="11"/>
+      <c r="BO20" s="15"/>
+      <c r="BP20" s="11"/>
+      <c r="BQ20" s="11"/>
+      <c r="BR20" s="11"/>
+      <c r="BS20" s="11"/>
+      <c r="BT20" s="15"/>
+      <c r="BU20" s="11"/>
+      <c r="BV20" s="15"/>
+      <c r="BW20" s="11"/>
+      <c r="BX20" s="11"/>
+      <c r="BY20" s="11"/>
+      <c r="BZ20" s="11"/>
+      <c r="CA20" s="15"/>
+      <c r="CB20" s="11"/>
+      <c r="CC20" s="15"/>
+      <c r="CD20" s="12"/>
+      <c r="CE20" s="11"/>
+      <c r="CF20" s="11"/>
+      <c r="CG20" s="11"/>
+      <c r="CH20" s="15"/>
+      <c r="CI20" s="11"/>
+      <c r="CJ20" s="21"/>
+      <c r="CM20" s="11"/>
+      <c r="CN20" s="11"/>
+      <c r="CO20" s="15"/>
+      <c r="CP20" s="33"/>
+      <c r="CQ20" s="33"/>
+      <c r="CR20" s="11"/>
+      <c r="CS20" s="11"/>
+      <c r="CT20" s="11"/>
+      <c r="CU20" s="11"/>
+      <c r="CV20" s="15"/>
+      <c r="CW20" s="11"/>
+      <c r="CX20" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="CH19:CJ19"/>
-    <mergeCell ref="CK20:CL20"/>
-    <mergeCell ref="BA14:BH14"/>
-    <mergeCell ref="BO15:BU15"/>
-    <mergeCell ref="BV16:CE16"/>
-    <mergeCell ref="CF17:CG17"/>
-    <mergeCell ref="CF18:CG18"/>
+  <mergeCells count="13">
     <mergeCell ref="M9:U9"/>
     <mergeCell ref="T10:V10"/>
     <mergeCell ref="V11:Z11"/>
     <mergeCell ref="AA12:AN12"/>
     <mergeCell ref="AO13:AW13"/>
+    <mergeCell ref="CO19:CQ19"/>
+    <mergeCell ref="CP20:CQ20"/>
+    <mergeCell ref="BA14:BH14"/>
+    <mergeCell ref="BO15:BU15"/>
+    <mergeCell ref="BV16:CE16"/>
+    <mergeCell ref="CO17:CP17"/>
+    <mergeCell ref="CP18:CQ18"/>
+    <mergeCell ref="CF16:CO16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2806,7 +2815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2814,7 +2823,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -2826,518 +2835,518 @@
     <col min="11" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="63.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+    <row r="2" spans="1:12" ht="63.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:12" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="B5" s="31">
+        <v>43976.794596342595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="35">
-        <v>43976.794596342595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="26" t="s">
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+    </row>
+    <row r="35" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B35" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="28" t="s">
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+    </row>
+    <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+    </row>
+    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B43" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+    </row>
+    <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+    </row>
+    <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="J51" s="26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="26" t="s">
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+    </row>
+    <row r="54" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="26" t="s">
+      <c r="I55" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
+    <row r="58" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-    </row>
-    <row r="35" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B35" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" t="s">
-        <v>52</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-    </row>
-    <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-    </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="J43" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-    </row>
-    <row r="46" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-    </row>
-    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" t="s">
-        <v>52</v>
-      </c>
-      <c r="I51" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="J51" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-    </row>
-    <row r="54" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27" t="s">
+      <c r="I63" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="J63" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+    </row>
+    <row r="66" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I55" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I59" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27" t="s">
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+    </row>
+    <row r="67" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B67" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="29" t="s">
+      <c r="C67" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G63" t="s">
-        <v>52</v>
-      </c>
-      <c r="I63" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J63" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-    </row>
-    <row r="66" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-    </row>
-    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B67" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F67" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I67" s="31" t="s">
-        <v>47</v>
+      <c r="I67" s="27" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
